--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Cd36</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.12718469279366</v>
+        <v>10.717137</v>
       </c>
       <c r="H2">
-        <v>3.12718469279366</v>
+        <v>32.151411</v>
       </c>
       <c r="I2">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J2">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>405.988787689166</v>
+        <v>428.2238463333333</v>
       </c>
       <c r="N2">
-        <v>405.988787689166</v>
+        <v>1284.671539</v>
       </c>
       <c r="O2">
-        <v>0.6589121170792183</v>
+        <v>0.6593892347944894</v>
       </c>
       <c r="P2">
-        <v>0.6589121170792183</v>
+        <v>0.6593892347944894</v>
       </c>
       <c r="Q2">
-        <v>1269.601922307415</v>
+        <v>4589.333627821281</v>
       </c>
       <c r="R2">
-        <v>1269.601922307415</v>
+        <v>41304.00265039153</v>
       </c>
       <c r="S2">
-        <v>0.001529346668867547</v>
+        <v>0.005098724870444109</v>
       </c>
       <c r="T2">
-        <v>0.001529346668867547</v>
+        <v>0.005098724870444109</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.12718469279366</v>
+        <v>10.717137</v>
       </c>
       <c r="H3">
-        <v>3.12718469279366</v>
+        <v>32.151411</v>
       </c>
       <c r="I3">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J3">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>73.87663450791339</v>
+        <v>0.376277</v>
       </c>
       <c r="N3">
-        <v>73.87663450791339</v>
+        <v>1.128831</v>
       </c>
       <c r="O3">
-        <v>0.1199003793266477</v>
+        <v>0.0005794002487839798</v>
       </c>
       <c r="P3">
-        <v>0.1199003793266477</v>
+        <v>0.0005794002487839798</v>
       </c>
       <c r="Q3">
-        <v>231.0258805882586</v>
+        <v>4.032612158949</v>
       </c>
       <c r="R3">
-        <v>231.0258805882586</v>
+        <v>36.293509430541</v>
       </c>
       <c r="S3">
-        <v>0.0002782908994480037</v>
+        <v>4.480210325752608E-06</v>
       </c>
       <c r="T3">
-        <v>0.0002782908994480037</v>
+        <v>4.480210325752607E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.12718469279366</v>
+        <v>10.717137</v>
       </c>
       <c r="H4">
-        <v>3.12718469279366</v>
+        <v>32.151411</v>
       </c>
       <c r="I4">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J4">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.4524717695131</v>
+        <v>76.72111133333333</v>
       </c>
       <c r="N4">
-        <v>59.4524717695131</v>
+        <v>230.163334</v>
       </c>
       <c r="O4">
-        <v>0.09649023625064933</v>
+        <v>0.1181369868302255</v>
       </c>
       <c r="P4">
-        <v>0.09649023625064933</v>
+        <v>0.1181369868302255</v>
       </c>
       <c r="Q4">
-        <v>185.9188596663686</v>
+        <v>822.2306609515859</v>
       </c>
       <c r="R4">
-        <v>185.9188596663686</v>
+        <v>7400.075948564275</v>
       </c>
       <c r="S4">
-        <v>0.0002239555436350122</v>
+        <v>0.0009134938228985972</v>
       </c>
       <c r="T4">
-        <v>0.0002239555436350122</v>
+        <v>0.0009134938228985972</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.12718469279366</v>
+        <v>10.717137</v>
       </c>
       <c r="H5">
-        <v>3.12718469279366</v>
+        <v>32.151411</v>
       </c>
       <c r="I5">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J5">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.8681407630072</v>
+        <v>66.29053499999999</v>
       </c>
       <c r="N5">
-        <v>54.8681407630072</v>
+        <v>198.871605</v>
       </c>
       <c r="O5">
-        <v>0.0890499538081662</v>
+        <v>0.1020757380095598</v>
       </c>
       <c r="P5">
-        <v>0.0890499538081662</v>
+        <v>0.1020757380095598</v>
       </c>
       <c r="Q5">
-        <v>171.5828099161239</v>
+        <v>710.444745398295</v>
       </c>
       <c r="R5">
-        <v>171.5828099161239</v>
+        <v>6394.002708584655</v>
       </c>
       <c r="S5">
-        <v>0.0002066865165919457</v>
+        <v>0.0007893002745495064</v>
       </c>
       <c r="T5">
-        <v>0.0002066865165919457</v>
+        <v>0.0007893002745495064</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.12718469279366</v>
+        <v>10.717137</v>
       </c>
       <c r="H6">
-        <v>3.12718469279366</v>
+        <v>32.151411</v>
       </c>
       <c r="I6">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J6">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.9640969280272</v>
+        <v>55.09903466666666</v>
       </c>
       <c r="N6">
-        <v>21.9640969280272</v>
+        <v>165.297104</v>
       </c>
       <c r="O6">
-        <v>0.0356473135353185</v>
+        <v>0.08484280036681434</v>
       </c>
       <c r="P6">
-        <v>0.0356473135353185</v>
+        <v>0.08484280036681434</v>
       </c>
       <c r="Q6">
-        <v>68.68578770436291</v>
+        <v>590.503903090416</v>
       </c>
       <c r="R6">
-        <v>68.68578770436291</v>
+        <v>5314.535127813744</v>
       </c>
       <c r="S6">
-        <v>8.273804471979683E-05</v>
+        <v>0.0006560466466262911</v>
       </c>
       <c r="T6">
-        <v>8.273804471979683E-05</v>
+        <v>0.000656046646626291</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1277.0726910683</v>
+        <v>10.717137</v>
       </c>
       <c r="H7">
-        <v>1277.0726910683</v>
+        <v>32.151411</v>
       </c>
       <c r="I7">
-        <v>0.9478520065798225</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J7">
-        <v>0.9478520065798225</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>405.988787689166</v>
+        <v>22.71418433333333</v>
       </c>
       <c r="N7">
-        <v>405.988787689166</v>
+        <v>68.14255299999999</v>
       </c>
       <c r="O7">
-        <v>0.6589121170792183</v>
+        <v>0.03497583975012693</v>
       </c>
       <c r="P7">
-        <v>0.6589121170792183</v>
+        <v>0.03497583975012693</v>
       </c>
       <c r="Q7">
-        <v>518477.1936377599</v>
+        <v>243.431025343587</v>
       </c>
       <c r="R7">
-        <v>518477.1936377599</v>
+        <v>2190.879228092283</v>
       </c>
       <c r="S7">
-        <v>0.6245511723332959</v>
+        <v>0.0002704505542226821</v>
       </c>
       <c r="T7">
-        <v>0.6245511723332959</v>
+        <v>0.0002704505542226819</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1277.0726910683</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H8">
-        <v>1277.0726910683</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I8">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J8">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.87663450791339</v>
+        <v>428.2238463333333</v>
       </c>
       <c r="N8">
-        <v>73.87663450791339</v>
+        <v>1284.671539</v>
       </c>
       <c r="O8">
-        <v>0.1199003793266477</v>
+        <v>0.6593892347944894</v>
       </c>
       <c r="P8">
-        <v>0.1199003793266477</v>
+        <v>0.6593892347944894</v>
       </c>
       <c r="Q8">
-        <v>94345.83243809019</v>
+        <v>551775.2601157086</v>
       </c>
       <c r="R8">
-        <v>94345.83243809019</v>
+        <v>4965977.341041378</v>
       </c>
       <c r="S8">
-        <v>0.1136478151344449</v>
+        <v>0.6130193334807362</v>
       </c>
       <c r="T8">
-        <v>0.1136478151344449</v>
+        <v>0.6130193334807362</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1277.0726910683</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H9">
-        <v>1277.0726910683</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I9">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J9">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>59.4524717695131</v>
+        <v>0.376277</v>
       </c>
       <c r="N9">
-        <v>59.4524717695131</v>
+        <v>1.128831</v>
       </c>
       <c r="O9">
-        <v>0.09649023625064933</v>
+        <v>0.0005794002487839798</v>
       </c>
       <c r="P9">
-        <v>0.09649023625064933</v>
+        <v>0.0005794002487839798</v>
       </c>
       <c r="Q9">
-        <v>75925.12811335424</v>
+        <v>484.8406769690843</v>
       </c>
       <c r="R9">
-        <v>75925.12811335424</v>
+        <v>4363.56609272176</v>
       </c>
       <c r="S9">
-        <v>0.09145846404553909</v>
+        <v>0.0005386553731633599</v>
       </c>
       <c r="T9">
-        <v>0.09145846404553909</v>
+        <v>0.0005386553731633599</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1277.0726910683</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H10">
-        <v>1277.0726910683</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I10">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J10">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>54.8681407630072</v>
+        <v>76.72111133333333</v>
       </c>
       <c r="N10">
-        <v>54.8681407630072</v>
+        <v>230.163334</v>
       </c>
       <c r="O10">
-        <v>0.0890499538081662</v>
+        <v>0.1181369868302255</v>
       </c>
       <c r="P10">
-        <v>0.0890499538081662</v>
+        <v>0.1181369868302255</v>
       </c>
       <c r="Q10">
-        <v>70070.60417812789</v>
+        <v>98856.73468395309</v>
       </c>
       <c r="R10">
-        <v>70070.60417812789</v>
+        <v>889710.612155578</v>
       </c>
       <c r="S10">
-        <v>0.08440617740291084</v>
+        <v>0.1098292982424234</v>
       </c>
       <c r="T10">
-        <v>0.08440617740291084</v>
+        <v>0.1098292982424234</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1277.0726910683</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H11">
-        <v>1277.0726910683</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I11">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J11">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.9640969280272</v>
+        <v>66.29053499999999</v>
       </c>
       <c r="N11">
-        <v>21.9640969280272</v>
+        <v>198.871605</v>
       </c>
       <c r="O11">
-        <v>0.0356473135353185</v>
+        <v>0.1020757380095598</v>
       </c>
       <c r="P11">
-        <v>0.0356473135353185</v>
+        <v>0.1020757380095598</v>
       </c>
       <c r="Q11">
-        <v>28049.74837076068</v>
+        <v>85416.7218991402</v>
       </c>
       <c r="R11">
-        <v>28049.74837076068</v>
+        <v>768750.4970922619</v>
       </c>
       <c r="S11">
-        <v>0.03378837766363171</v>
+        <v>0.09489751663700882</v>
       </c>
       <c r="T11">
-        <v>0.03378837766363171</v>
+        <v>0.09489751663700884</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.16229073701934</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H12">
-        <v>2.16229073701934</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I12">
-        <v>0.001604866839786751</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J12">
-        <v>0.001604866839786751</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>405.988787689166</v>
+        <v>55.09903466666666</v>
       </c>
       <c r="N12">
-        <v>405.988787689166</v>
+        <v>165.297104</v>
       </c>
       <c r="O12">
-        <v>0.6589121170792183</v>
+        <v>0.08484280036681434</v>
       </c>
       <c r="P12">
-        <v>0.6589121170792183</v>
+        <v>0.08484280036681434</v>
       </c>
       <c r="Q12">
-        <v>877.865794953995</v>
+        <v>70996.24284271883</v>
       </c>
       <c r="R12">
-        <v>877.865794953995</v>
+        <v>638966.1855844695</v>
       </c>
       <c r="S12">
-        <v>0.001057466207034123</v>
+        <v>0.0788764422999924</v>
       </c>
       <c r="T12">
-        <v>0.001057466207034123</v>
+        <v>0.0788764422999924</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.16229073701934</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H13">
-        <v>2.16229073701934</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I13">
-        <v>0.001604866839786751</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J13">
-        <v>0.001604866839786751</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>73.87663450791339</v>
+        <v>22.71418433333333</v>
       </c>
       <c r="N13">
-        <v>73.87663450791339</v>
+        <v>68.14255299999999</v>
       </c>
       <c r="O13">
-        <v>0.1199003793266477</v>
+        <v>0.03497583975012693</v>
       </c>
       <c r="P13">
-        <v>0.1199003793266477</v>
+        <v>0.03497583975012693</v>
       </c>
       <c r="Q13">
-        <v>159.7427624786245</v>
+        <v>29267.6950995514</v>
       </c>
       <c r="R13">
-        <v>159.7427624786245</v>
+        <v>263409.2558959626</v>
       </c>
       <c r="S13">
-        <v>0.0001924241428591898</v>
+        <v>0.03251625116117385</v>
       </c>
       <c r="T13">
-        <v>0.0001924241428591898</v>
+        <v>0.03251625116117384</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.16229073701934</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H14">
-        <v>2.16229073701934</v>
+        <v>2.926306</v>
       </c>
       <c r="I14">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J14">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.4524717695131</v>
+        <v>428.2238463333333</v>
       </c>
       <c r="N14">
-        <v>59.4524717695131</v>
+        <v>1284.671539</v>
       </c>
       <c r="O14">
-        <v>0.09649023625064933</v>
+        <v>0.6593892347944894</v>
       </c>
       <c r="P14">
-        <v>0.09649023625064933</v>
+        <v>0.6593892347944894</v>
       </c>
       <c r="Q14">
-        <v>128.553529000122</v>
+        <v>417.7046702894371</v>
       </c>
       <c r="R14">
-        <v>128.553529000122</v>
+        <v>3759.342032604934</v>
       </c>
       <c r="S14">
-        <v>0.0001548539805218566</v>
+        <v>0.0004640676323888186</v>
       </c>
       <c r="T14">
-        <v>0.0001548539805218566</v>
+        <v>0.0004640676323888185</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.16229073701934</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H15">
-        <v>2.16229073701934</v>
+        <v>2.926306</v>
       </c>
       <c r="I15">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J15">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>54.8681407630072</v>
+        <v>0.376277</v>
       </c>
       <c r="N15">
-        <v>54.8681407630072</v>
+        <v>1.128831</v>
       </c>
       <c r="O15">
-        <v>0.0890499538081662</v>
+        <v>0.0005794002487839798</v>
       </c>
       <c r="P15">
-        <v>0.0890499538081662</v>
+        <v>0.0005794002487839798</v>
       </c>
       <c r="Q15">
-        <v>118.6408725293237</v>
+        <v>0.3670338809206666</v>
       </c>
       <c r="R15">
-        <v>118.6408725293237</v>
+        <v>3.303304928285999</v>
       </c>
       <c r="S15">
-        <v>0.0001429133179512678</v>
+        <v>4.077726591069926E-07</v>
       </c>
       <c r="T15">
-        <v>0.0001429133179512678</v>
+        <v>4.077726591069925E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>2.16229073701934</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H16">
-        <v>2.16229073701934</v>
+        <v>2.926306</v>
       </c>
       <c r="I16">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J16">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.9640969280272</v>
+        <v>76.72111133333333</v>
       </c>
       <c r="N16">
-        <v>21.9640969280272</v>
+        <v>230.163334</v>
       </c>
       <c r="O16">
-        <v>0.0356473135353185</v>
+        <v>0.1181369868302255</v>
       </c>
       <c r="P16">
-        <v>0.0356473135353185</v>
+        <v>0.1181369868302255</v>
       </c>
       <c r="Q16">
-        <v>47.49276333446815</v>
+        <v>74.83648280713376</v>
       </c>
       <c r="R16">
-        <v>47.49276333446815</v>
+        <v>673.5283452642039</v>
       </c>
       <c r="S16">
-        <v>5.720919142031409E-05</v>
+        <v>8.314292815674876E-05</v>
       </c>
       <c r="T16">
-        <v>5.720919142031409E-05</v>
+        <v>8.314292815674876E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.414603533288968</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H17">
-        <v>0.414603533288968</v>
+        <v>2.926306</v>
       </c>
       <c r="I17">
-        <v>0.0003077215523528999</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J17">
-        <v>0.0003077215523528999</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>405.988787689166</v>
+        <v>66.29053499999999</v>
       </c>
       <c r="N17">
-        <v>405.988787689166</v>
+        <v>198.871605</v>
       </c>
       <c r="O17">
-        <v>0.6589121170792183</v>
+        <v>0.1020757380095598</v>
       </c>
       <c r="P17">
-        <v>0.6589121170792183</v>
+        <v>0.1020757380095598</v>
       </c>
       <c r="Q17">
-        <v>168.3243858516329</v>
+        <v>64.66213010457</v>
       </c>
       <c r="R17">
-        <v>168.3243858516329</v>
+        <v>581.95917094113</v>
       </c>
       <c r="S17">
-        <v>0.0002027614595317527</v>
+        <v>7.183927726269519E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002027614595317527</v>
+        <v>7.183927726269519E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.414603533288968</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H18">
-        <v>0.414603533288968</v>
+        <v>2.926306</v>
       </c>
       <c r="I18">
-        <v>0.0003077215523528999</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J18">
-        <v>0.0003077215523528999</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>73.87663450791339</v>
+        <v>55.09903466666666</v>
       </c>
       <c r="N18">
-        <v>73.87663450791339</v>
+        <v>165.297104</v>
       </c>
       <c r="O18">
-        <v>0.1199003793266477</v>
+        <v>0.08484280036681434</v>
       </c>
       <c r="P18">
-        <v>0.1199003793266477</v>
+        <v>0.08484280036681434</v>
       </c>
       <c r="Q18">
-        <v>30.62951369447859</v>
+        <v>53.74554524642488</v>
       </c>
       <c r="R18">
-        <v>30.62951369447859</v>
+        <v>483.709907217824</v>
       </c>
       <c r="S18">
-        <v>3.689593085409758E-05</v>
+        <v>5.971101045308385E-05</v>
       </c>
       <c r="T18">
-        <v>3.689593085409758E-05</v>
+        <v>5.971101045308384E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.414603533288968</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H19">
-        <v>0.414603533288968</v>
+        <v>2.926306</v>
       </c>
       <c r="I19">
-        <v>0.0003077215523528999</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J19">
-        <v>0.0003077215523528999</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.4524717695131</v>
+        <v>22.71418433333333</v>
       </c>
       <c r="N19">
-        <v>59.4524717695131</v>
+        <v>68.14255299999999</v>
       </c>
       <c r="O19">
-        <v>0.09649023625064933</v>
+        <v>0.03497583975012693</v>
       </c>
       <c r="P19">
-        <v>0.09649023625064933</v>
+        <v>0.03497583975012693</v>
       </c>
       <c r="Q19">
-        <v>24.64920485840275</v>
+        <v>22.15621796657978</v>
       </c>
       <c r="R19">
-        <v>24.64920485840275</v>
+        <v>199.405961699218</v>
       </c>
       <c r="S19">
-        <v>2.969212528594786E-05</v>
+        <v>2.461543848029437E-05</v>
       </c>
       <c r="T19">
-        <v>2.969212528594786E-05</v>
+        <v>2.461543848029436E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.414603533288968</v>
+        <v>2.246702</v>
       </c>
       <c r="H20">
-        <v>0.414603533288968</v>
+        <v>6.740106</v>
       </c>
       <c r="I20">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="J20">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>54.8681407630072</v>
+        <v>428.2238463333333</v>
       </c>
       <c r="N20">
-        <v>54.8681407630072</v>
+        <v>1284.671539</v>
       </c>
       <c r="O20">
-        <v>0.0890499538081662</v>
+        <v>0.6593892347944894</v>
       </c>
       <c r="P20">
-        <v>0.0890499538081662</v>
+        <v>0.6593892347944894</v>
       </c>
       <c r="Q20">
-        <v>22.74852502533924</v>
+        <v>962.0913720047926</v>
       </c>
       <c r="R20">
-        <v>22.74852502533924</v>
+        <v>8658.822348043133</v>
       </c>
       <c r="S20">
-        <v>2.740259002280293E-05</v>
+        <v>0.001068878317397316</v>
       </c>
       <c r="T20">
-        <v>2.740259002280293E-05</v>
+        <v>0.001068878317397316</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,309 +1706,309 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.414603533288968</v>
+        <v>2.246702</v>
       </c>
       <c r="H21">
-        <v>0.414603533288968</v>
+        <v>6.740106</v>
       </c>
       <c r="I21">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="J21">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>21.9640969280272</v>
+        <v>0.376277</v>
       </c>
       <c r="N21">
-        <v>21.9640969280272</v>
+        <v>1.128831</v>
       </c>
       <c r="O21">
-        <v>0.0356473135353185</v>
+        <v>0.0005794002487839798</v>
       </c>
       <c r="P21">
-        <v>0.0356473135353185</v>
+        <v>0.0005794002487839798</v>
       </c>
       <c r="Q21">
-        <v>9.106392191861444</v>
+        <v>0.8453822884539999</v>
       </c>
       <c r="R21">
-        <v>9.106392191861444</v>
+        <v>7.608440596085999</v>
       </c>
       <c r="S21">
-        <v>1.096944665829875E-05</v>
+        <v>9.392151559963295E-07</v>
       </c>
       <c r="T21">
-        <v>1.096944665829875E-05</v>
+        <v>9.392151559963295E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>64.5566556543436</v>
+        <v>2.246702</v>
       </c>
       <c r="H22">
-        <v>64.5566556543436</v>
+        <v>6.740106</v>
       </c>
       <c r="I22">
-        <v>0.04791438735477562</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="J22">
-        <v>0.04791438735477562</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>405.988787689166</v>
+        <v>76.72111133333333</v>
       </c>
       <c r="N22">
-        <v>405.988787689166</v>
+        <v>230.163334</v>
       </c>
       <c r="O22">
-        <v>0.6589121170792183</v>
+        <v>0.1181369868302255</v>
       </c>
       <c r="P22">
-        <v>0.6589121170792183</v>
+        <v>0.1181369868302255</v>
       </c>
       <c r="Q22">
-        <v>26209.2783663739</v>
+        <v>172.3694742748226</v>
       </c>
       <c r="R22">
-        <v>26209.2783663739</v>
+        <v>1551.325268473404</v>
       </c>
       <c r="S22">
-        <v>0.03157137041048893</v>
+        <v>0.0001915015548363265</v>
       </c>
       <c r="T22">
-        <v>0.03157137041048893</v>
+        <v>0.0001915015548363265</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>64.5566556543436</v>
+        <v>2.246702</v>
       </c>
       <c r="H23">
-        <v>64.5566556543436</v>
+        <v>6.740106</v>
       </c>
       <c r="I23">
-        <v>0.04791438735477562</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="J23">
-        <v>0.04791438735477562</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>73.87663450791339</v>
+        <v>66.29053499999999</v>
       </c>
       <c r="N23">
-        <v>73.87663450791339</v>
+        <v>198.871605</v>
       </c>
       <c r="O23">
-        <v>0.1199003793266477</v>
+        <v>0.1020757380095598</v>
       </c>
       <c r="P23">
-        <v>0.1199003793266477</v>
+        <v>0.1020757380095598</v>
       </c>
       <c r="Q23">
-        <v>4769.228454829163</v>
+        <v>148.93507756557</v>
       </c>
       <c r="R23">
-        <v>4769.228454829163</v>
+        <v>1340.41569809013</v>
       </c>
       <c r="S23">
-        <v>0.00574495321904153</v>
+        <v>0.0001654660666772222</v>
       </c>
       <c r="T23">
-        <v>0.00574495321904153</v>
+        <v>0.0001654660666772222</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>64.5566556543436</v>
+        <v>2.246702</v>
       </c>
       <c r="H24">
-        <v>64.5566556543436</v>
+        <v>6.740106</v>
       </c>
       <c r="I24">
-        <v>0.04791438735477562</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="J24">
-        <v>0.04791438735477562</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>59.4524717695131</v>
+        <v>55.09903466666666</v>
       </c>
       <c r="N24">
-        <v>59.4524717695131</v>
+        <v>165.297104</v>
       </c>
       <c r="O24">
-        <v>0.09649023625064933</v>
+        <v>0.08484280036681434</v>
       </c>
       <c r="P24">
-        <v>0.09649023625064933</v>
+        <v>0.08484280036681434</v>
       </c>
       <c r="Q24">
-        <v>3838.052747824041</v>
+        <v>123.7911113836693</v>
       </c>
       <c r="R24">
-        <v>3838.052747824041</v>
+        <v>1114.120002453024</v>
       </c>
       <c r="S24">
-        <v>0.004623270555667424</v>
+        <v>0.000137531256068536</v>
       </c>
       <c r="T24">
-        <v>0.004623270555667424</v>
+        <v>0.000137531256068536</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>64.5566556543436</v>
+        <v>2.246702</v>
       </c>
       <c r="H25">
-        <v>64.5566556543436</v>
+        <v>6.740106</v>
       </c>
       <c r="I25">
-        <v>0.04791438735477562</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="J25">
-        <v>0.04791438735477562</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>54.8681407630072</v>
+        <v>22.71418433333333</v>
       </c>
       <c r="N25">
-        <v>54.8681407630072</v>
+        <v>68.14255299999999</v>
       </c>
       <c r="O25">
-        <v>0.0890499538081662</v>
+        <v>0.03497583975012693</v>
       </c>
       <c r="P25">
-        <v>0.0890499538081662</v>
+        <v>0.03497583975012693</v>
       </c>
       <c r="Q25">
-        <v>3542.103669631509</v>
+        <v>51.03200337006867</v>
       </c>
       <c r="R25">
-        <v>3542.103669631509</v>
+        <v>459.288030330618</v>
       </c>
       <c r="S25">
-        <v>0.004266773980689352</v>
+        <v>5.669628008610957E-05</v>
       </c>
       <c r="T25">
-        <v>0.004266773980689352</v>
+        <v>5.669628008610956E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4452746666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.335824</v>
+      </c>
+      <c r="I26">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="J26">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>428.2238463333333</v>
+      </c>
+      <c r="N26">
+        <v>1284.671539</v>
+      </c>
+      <c r="O26">
+        <v>0.6593892347944894</v>
+      </c>
+      <c r="P26">
+        <v>0.6593892347944894</v>
+      </c>
+      <c r="Q26">
+        <v>190.6772304347929</v>
+      </c>
+      <c r="R26">
+        <v>1716.095073913136</v>
+      </c>
+      <c r="S26">
+        <v>0.000211841373037598</v>
+      </c>
+      <c r="T26">
+        <v>0.000211841373037598</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.4452746666666667</v>
+      </c>
+      <c r="H27">
+        <v>1.335824</v>
+      </c>
+      <c r="I27">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="J27">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.376277</v>
+      </c>
+      <c r="N27">
+        <v>1.128831</v>
+      </c>
+      <c r="O27">
+        <v>0.0005794002487839798</v>
+      </c>
+      <c r="P27">
+        <v>0.0005794002487839798</v>
+      </c>
+      <c r="Q27">
+        <v>0.1675466157493333</v>
+      </c>
+      <c r="R27">
+        <v>1.507919541744</v>
+      </c>
+      <c r="S27">
+        <v>1.861433850659976E-07</v>
+      </c>
+      <c r="T27">
+        <v>1.861433850659976E-07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.4452746666666667</v>
+      </c>
+      <c r="H28">
+        <v>1.335824</v>
+      </c>
+      <c r="I28">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="J28">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>76.72111133333333</v>
+      </c>
+      <c r="N28">
+        <v>230.163334</v>
+      </c>
+      <c r="O28">
+        <v>0.1181369868302255</v>
+      </c>
+      <c r="P28">
+        <v>0.1181369868302255</v>
+      </c>
+      <c r="Q28">
+        <v>34.16196727524622</v>
+      </c>
+      <c r="R28">
+        <v>307.457705477216</v>
+      </c>
+      <c r="S28">
+        <v>3.795376111112808E-05</v>
+      </c>
+      <c r="T28">
+        <v>3.795376111112809E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.4452746666666667</v>
+      </c>
+      <c r="H29">
+        <v>1.335824</v>
+      </c>
+      <c r="I29">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="J29">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>66.29053499999999</v>
+      </c>
+      <c r="N29">
+        <v>198.871605</v>
+      </c>
+      <c r="O29">
+        <v>0.1020757380095598</v>
+      </c>
+      <c r="P29">
+        <v>0.1020757380095598</v>
+      </c>
+      <c r="Q29">
+        <v>29.51749587528</v>
+      </c>
+      <c r="R29">
+        <v>265.65746287752</v>
+      </c>
+      <c r="S29">
+        <v>3.279377847366699E-05</v>
+      </c>
+      <c r="T29">
+        <v>3.279377847366699E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.4452746666666667</v>
+      </c>
+      <c r="H30">
+        <v>1.335824</v>
+      </c>
+      <c r="I30">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="J30">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>55.09903466666666</v>
+      </c>
+      <c r="N30">
+        <v>165.297104</v>
+      </c>
+      <c r="O30">
+        <v>0.08484280036681434</v>
+      </c>
+      <c r="P30">
+        <v>0.08484280036681434</v>
+      </c>
+      <c r="Q30">
+        <v>24.53420429485511</v>
+      </c>
+      <c r="R30">
+        <v>220.807838653696</v>
+      </c>
+      <c r="S30">
+        <v>2.725736844591109E-05</v>
+      </c>
+      <c r="T30">
+        <v>2.725736844591109E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.4452746666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.335824</v>
+      </c>
+      <c r="I31">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="J31">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>22.71418433333333</v>
+      </c>
+      <c r="N31">
+        <v>68.14255299999999</v>
+      </c>
+      <c r="O31">
+        <v>0.03497583975012693</v>
+      </c>
+      <c r="P31">
+        <v>0.03497583975012693</v>
+      </c>
+      <c r="Q31">
+        <v>10.11405085763022</v>
+      </c>
+      <c r="R31">
+        <v>91.02645771867199</v>
+      </c>
+      <c r="S31">
+        <v>1.123665587006306E-05</v>
+      </c>
+      <c r="T31">
+        <v>1.123665587006306E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H32">
+        <v>249.24451</v>
+      </c>
+      <c r="I32">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J32">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>428.2238463333333</v>
+      </c>
+      <c r="N32">
+        <v>1284.671539</v>
+      </c>
+      <c r="O32">
+        <v>0.6593892347944894</v>
+      </c>
+      <c r="P32">
+        <v>0.6593892347944894</v>
+      </c>
+      <c r="Q32">
+        <v>35577.48091655565</v>
+      </c>
+      <c r="R32">
+        <v>320197.3282490009</v>
+      </c>
+      <c r="S32">
+        <v>0.03952638912048542</v>
+      </c>
+      <c r="T32">
+        <v>0.03952638912048542</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H33">
+        <v>249.24451</v>
+      </c>
+      <c r="I33">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J33">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.376277</v>
+      </c>
+      <c r="N33">
+        <v>1.128831</v>
+      </c>
+      <c r="O33">
+        <v>0.0005794002487839798</v>
+      </c>
+      <c r="P33">
+        <v>0.0005794002487839798</v>
+      </c>
+      <c r="Q33">
+        <v>31.26165882975666</v>
+      </c>
+      <c r="R33">
+        <v>281.35492946781</v>
+      </c>
+      <c r="S33">
+        <v>3.473153409469802E-05</v>
+      </c>
+      <c r="T33">
+        <v>3.473153409469802E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H34">
+        <v>249.24451</v>
+      </c>
+      <c r="I34">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J34">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>76.72111133333333</v>
+      </c>
+      <c r="N34">
+        <v>230.163334</v>
+      </c>
+      <c r="O34">
+        <v>0.1181369868302255</v>
+      </c>
+      <c r="P34">
+        <v>0.1181369868302255</v>
+      </c>
+      <c r="Q34">
+        <v>6374.10526697737</v>
+      </c>
+      <c r="R34">
+        <v>57366.94740279634</v>
+      </c>
+      <c r="S34">
+        <v>0.007081596520799277</v>
+      </c>
+      <c r="T34">
+        <v>0.007081596520799277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H35">
+        <v>249.24451</v>
+      </c>
+      <c r="I35">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J35">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>66.29053499999999</v>
+      </c>
+      <c r="N35">
+        <v>198.871605</v>
+      </c>
+      <c r="O35">
+        <v>0.1020757380095598</v>
+      </c>
+      <c r="P35">
+        <v>0.1020757380095598</v>
+      </c>
+      <c r="Q35">
+        <v>5507.517304570949</v>
+      </c>
+      <c r="R35">
+        <v>49567.65574113854</v>
+      </c>
+      <c r="S35">
+        <v>0.006118821975587858</v>
+      </c>
+      <c r="T35">
+        <v>0.006118821975587859</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>64.5566556543436</v>
-      </c>
-      <c r="H26">
-        <v>64.5566556543436</v>
-      </c>
-      <c r="I26">
-        <v>0.04791438735477562</v>
-      </c>
-      <c r="J26">
-        <v>0.04791438735477562</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>21.9640969280272</v>
-      </c>
-      <c r="N26">
-        <v>21.9640969280272</v>
-      </c>
-      <c r="O26">
-        <v>0.0356473135353185</v>
-      </c>
-      <c r="P26">
-        <v>0.0356473135353185</v>
-      </c>
-      <c r="Q26">
-        <v>1417.928642141278</v>
-      </c>
-      <c r="R26">
-        <v>1417.928642141278</v>
-      </c>
-      <c r="S26">
-        <v>0.001708019188888387</v>
-      </c>
-      <c r="T26">
-        <v>0.001708019188888387</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H36">
+        <v>249.24451</v>
+      </c>
+      <c r="I36">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J36">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>55.09903466666666</v>
+      </c>
+      <c r="N36">
+        <v>165.297104</v>
+      </c>
+      <c r="O36">
+        <v>0.08484280036681434</v>
+      </c>
+      <c r="P36">
+        <v>0.08484280036681434</v>
+      </c>
+      <c r="Q36">
+        <v>4577.710632322115</v>
+      </c>
+      <c r="R36">
+        <v>41199.39569089904</v>
+      </c>
+      <c r="S36">
+        <v>0.005085811785228121</v>
+      </c>
+      <c r="T36">
+        <v>0.005085811785228121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H37">
+        <v>249.24451</v>
+      </c>
+      <c r="I37">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J37">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>22.71418433333333</v>
+      </c>
+      <c r="N37">
+        <v>68.14255299999999</v>
+      </c>
+      <c r="O37">
+        <v>0.03497583975012693</v>
+      </c>
+      <c r="P37">
+        <v>0.03497583975012693</v>
+      </c>
+      <c r="Q37">
+        <v>1887.128581403781</v>
+      </c>
+      <c r="R37">
+        <v>16984.15723263403</v>
+      </c>
+      <c r="S37">
+        <v>0.002096589660293939</v>
+      </c>
+      <c r="T37">
+        <v>0.002096589660293938</v>
       </c>
     </row>
   </sheetData>
